--- a/班费统计/班费情况.xlsx
+++ b/班费统计/班费情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
   </si>
   <si>
     <t>赵欣然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邬昕昱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,6 +240,61 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邬昕昱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季慧、谢怡荣、钟帅、孙昊海、邬昕昱请假</t>
+    <rPh sb="3" eb="4">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shuai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sun</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qing'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次种子论坛烧烤 825.5</t>
+    <rPh sb="0" eb="1">
+      <t>di'yi'ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhong'zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lun'tan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shao'kao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +324,11 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -330,13 +386,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -620,12 +678,13 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -636,12 +695,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>29</v>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -652,100 +714,120 @@
       <c r="D2" s="2">
         <v>99.361999999999995</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>64.965999999999994</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E3" s="9">
+        <v>99.361999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="3">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E4" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E5" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="C6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E6" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E7" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E8" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E9" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2">
-        <v>99.361999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3">
-        <v>100</v>
-      </c>
-      <c r="D7" s="2">
-        <v>99.361999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3">
-        <v>100</v>
-      </c>
-      <c r="D8" s="2">
-        <v>99.361999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3">
-        <v>100</v>
-      </c>
-      <c r="D9" s="2">
-        <v>99.361999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -756,9 +838,12 @@
       <c r="D10" s="2">
         <v>99.361999999999995</v>
       </c>
+      <c r="E10" s="2">
+        <v>64.965999999999994</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,10 +853,13 @@
       <c r="D11" s="2">
         <v>99.361999999999995</v>
       </c>
+      <c r="E11" s="2">
+        <v>64.965999999999994</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,9 +869,12 @@
       <c r="D12" s="2">
         <v>99.361999999999995</v>
       </c>
+      <c r="E12" s="2">
+        <v>64.965999999999994</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,10 +884,13 @@
       <c r="D13" s="2">
         <v>99.361999999999995</v>
       </c>
+      <c r="E13" s="2">
+        <v>64.965999999999994</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
+      <c r="A14" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -807,42 +901,50 @@
       <c r="D14" s="2">
         <v>99.361999999999995</v>
       </c>
+      <c r="E14" s="2">
+        <v>64.965999999999994</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E15" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="4">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2">
-        <v>99.361999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C16" s="4">
         <v>100</v>
       </c>
       <c r="D16" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="E16" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="2">
-        <v>99.361999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>33</v>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -853,9 +955,12 @@
       <c r="D18" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="E18" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -865,9 +970,12 @@
       <c r="D19" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="E19">
+        <v>99.361999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -877,18 +985,20 @@
       <c r="D20" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="E20" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="2">
-        <v>99.361999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>34</v>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -899,9 +1009,12 @@
       <c r="D22" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="E22" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
@@ -911,9 +1024,12 @@
       <c r="D23" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="E23" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
@@ -923,11 +1039,14 @@
       <c r="D24" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="E24" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5">
         <v>100</v>
@@ -935,10 +1054,13 @@
       <c r="D25" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>35</v>
+      <c r="E25" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
@@ -949,9 +1071,12 @@
       <c r="D26" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="E26" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
@@ -961,9 +1086,12 @@
       <c r="D27" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="E27">
+        <v>99.361999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
@@ -973,9 +1101,12 @@
       <c r="D28" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="E28">
+        <v>99.361999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
@@ -985,37 +1116,46 @@
       <c r="D29" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>36</v>
+      <c r="E29">
+        <v>99.361999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4">
+        <v>100</v>
+      </c>
+      <c r="D30" s="2">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E30" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="4">
-        <v>100</v>
-      </c>
-      <c r="D30" s="2">
-        <v>99.361999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C31" s="4">
         <v>100</v>
       </c>
       <c r="D31" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="E31" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4">
         <v>100</v>
@@ -1023,21 +1163,35 @@
       <c r="D32" s="2">
         <v>99.361999999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="2">
+        <v>64.965999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="8">
+        <v>39</v>
+      </c>
+      <c r="C33" s="6">
         <v>2900</v>
       </c>
       <c r="D33">
         <v>2881.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="10">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/班费统计/班费情况.xlsx
+++ b/班费统计/班费情况.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-840" yWindow="460" windowWidth="28520" windowHeight="18180"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张阳泽雨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,6 +348,52 @@
     <rPh sb="27" eb="28">
       <t>ren'jun</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九组</t>
+    <rPh sb="0" eb="1">
+      <t>di'jiu'zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明霏</t>
+    <rPh sb="0" eb="1">
+      <t>chen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ming'fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月28东鑫酒店班聚（1827）（人均63元）</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong'xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiu'dain</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ban'ju</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ren'jun</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟嘉伦1人请假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,13 +429,40 @@
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.55"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.15"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.5"/>
+      <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
@@ -443,26 +512,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -745,16 +836,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" customWidth="1"/>
-    <col min="6" max="6" width="51.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="54.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -765,585 +859,698 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E2" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F2" s="11">
-        <v>54.566000000000003</v>
+      <c r="C2" s="6">
+        <v>100</v>
+      </c>
+      <c r="D2" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E2" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F2" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G2" s="11">
+        <v>-8.4339999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E3" s="7">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
+      <c r="D3" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E3" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="F3" s="9">
         <v>88.962000000000003</v>
       </c>
+      <c r="G3" s="9">
+        <v>25.962</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E4" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F4" s="11">
-        <v>54.566000000000003</v>
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
+      <c r="D4" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E4" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F4" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G4" s="11">
+        <v>-8.4339999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E5" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F5" s="11">
-        <v>54.566000000000003</v>
+      <c r="C5" s="6">
+        <v>100</v>
+      </c>
+      <c r="D5" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E5" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F5" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G5" s="11">
+        <v>-8.4339999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E6" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F6" s="11">
-        <v>64.965999999999994</v>
+      <c r="C6" s="6">
+        <v>100</v>
+      </c>
+      <c r="D6" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E6" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F6" s="10">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1.966</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3">
-        <v>100</v>
-      </c>
-      <c r="D7" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E7" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F7" s="11">
-        <v>54.566000000000003</v>
+      <c r="C7" s="6">
+        <v>100</v>
+      </c>
+      <c r="D7" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E7" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F7" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G7" s="11">
+        <v>-8.4339999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3">
-        <v>100</v>
-      </c>
-      <c r="D8" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E8" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F8" s="11">
-        <v>54.566000000000003</v>
+      <c r="C8" s="6">
+        <v>100</v>
+      </c>
+      <c r="D8" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E8" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F8" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G8" s="11">
+        <v>-8.4339999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3">
-        <v>100</v>
-      </c>
-      <c r="D9" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E9" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F9" s="11">
-        <v>54.566000000000003</v>
+      <c r="C9" s="6">
+        <v>100</v>
+      </c>
+      <c r="D9" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E9" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F9" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G9" s="11">
+        <v>-8.4339999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E10" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F10" s="11">
-        <v>54.566000000000003</v>
+      <c r="C10" s="7">
+        <v>100</v>
+      </c>
+      <c r="D10" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E10" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F10" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G10" s="11">
+        <v>-8.4339999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4">
-        <v>100</v>
-      </c>
-      <c r="D11" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E11" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F11" s="11">
-        <v>54.566000000000003</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="C11" s="7">
+        <v>100</v>
+      </c>
+      <c r="D11" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E11" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F11" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G11" s="11">
+        <v>-8.4339999999999993</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4">
-        <v>100</v>
-      </c>
-      <c r="D12" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E12" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F12" s="11">
-        <v>54.566000000000003</v>
+      <c r="C12" s="7">
+        <v>100</v>
+      </c>
+      <c r="D12" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E12" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F12" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-8.4339999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
-        <v>100</v>
-      </c>
-      <c r="D13" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E13" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F13" s="11">
-        <v>54.566000000000003</v>
+      <c r="C13" s="7">
+        <v>100</v>
+      </c>
+      <c r="D13" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E13" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F13" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-8.4339999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E14" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F14" s="11">
-        <v>54.566000000000003</v>
+      <c r="C14" s="7">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E14" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F14" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-8.4339999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="7">
+        <v>100</v>
+      </c>
+      <c r="D15" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E15" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F15" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-8.4339999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E15" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F15" s="11">
-        <v>54.566000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="4">
-        <v>100</v>
-      </c>
-      <c r="D16" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E16" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F16" s="11">
-        <v>54.566000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="C16" s="7">
+        <v>100</v>
+      </c>
+      <c r="D16" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E16" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F16" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-8.4339999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4">
-        <v>100</v>
-      </c>
-      <c r="D17" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E17" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F17">
-        <v>64.965999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="C17" s="7">
+        <v>100</v>
+      </c>
+      <c r="D17" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E17" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F17" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1.966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4">
-        <v>100</v>
-      </c>
-      <c r="D18" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E18">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="F18">
+      <c r="C18" s="7">
+        <v>100</v>
+      </c>
+      <c r="D18" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E18" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="F18" s="9">
         <v>88.962000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="G18" s="9">
+        <v>25.962</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4">
-        <v>100</v>
-      </c>
-      <c r="D19" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E19" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F19" s="11">
-        <v>54.566000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="C19" s="7">
+        <v>100</v>
+      </c>
+      <c r="D19" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E19" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F19" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-8.4339999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4">
-        <v>100</v>
-      </c>
-      <c r="D20" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E20" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F20" s="11">
-        <v>54.566000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="C20" s="7">
+        <v>100</v>
+      </c>
+      <c r="D20" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E20" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F20" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G20" s="11">
+        <v>54.566000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="4">
-        <v>100</v>
-      </c>
-      <c r="D21" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E21" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F21" s="11">
-        <v>54.566000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E21" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F21" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G21" s="11">
+        <v>-8.4339999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="4">
-        <v>100</v>
-      </c>
-      <c r="D22" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E22" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F22" s="11">
-        <v>54.566000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="C22" s="7">
+        <v>100</v>
+      </c>
+      <c r="D22" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E22" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F22" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G22" s="11">
+        <v>-8.4339999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5">
-        <v>100</v>
-      </c>
-      <c r="D23" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E23" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F23" s="11">
-        <v>54.566000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="C23" s="7">
+        <v>100</v>
+      </c>
+      <c r="D23" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E23" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F23" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G23" s="11">
+        <v>-8.4339999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4">
-        <v>100</v>
-      </c>
-      <c r="D24" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E24" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F24">
-        <v>64.965999999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="C24" s="7">
+        <v>100</v>
+      </c>
+      <c r="D24" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E24" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F24" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1.966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="5">
-        <v>100</v>
-      </c>
-      <c r="D25" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E25">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="F25">
-        <v>99.361999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="C25" s="7">
+        <v>100</v>
+      </c>
+      <c r="D25" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E25" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="F25" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="G25" s="12">
+        <v>36.362000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="4">
-        <v>100</v>
-      </c>
-      <c r="D26" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E26">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="F26">
+      <c r="C26" s="7">
+        <v>100</v>
+      </c>
+      <c r="D26" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E26" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="F26" s="9">
         <v>88.962000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="G26" s="9">
+        <v>25.962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="4">
-        <v>100</v>
-      </c>
-      <c r="D27" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E27">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="F27">
+      <c r="C27" s="7">
+        <v>100</v>
+      </c>
+      <c r="D27" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E27" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="F27" s="9">
         <v>88.962000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="G27" s="9">
+        <v>25.962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="4">
-        <v>100</v>
-      </c>
-      <c r="D28" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E28" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F28" s="11">
-        <v>54.566000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+      <c r="C28" s="7">
+        <v>100</v>
+      </c>
+      <c r="D28" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E28" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F28" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G28" s="11">
+        <v>-8.4339999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="4">
-        <v>100</v>
-      </c>
-      <c r="D29" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E29" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F29" s="11">
-        <v>54.566000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+      <c r="C29" s="7">
+        <v>100</v>
+      </c>
+      <c r="D29" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E29" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F29" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G29" s="9">
+        <v>-8.4339999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4">
-        <v>100</v>
-      </c>
-      <c r="D30" s="2">
-        <v>99.361999999999995</v>
-      </c>
-      <c r="E30" s="2">
-        <v>64.965999999999994</v>
-      </c>
-      <c r="F30" s="11">
-        <v>54.566000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C30" s="7">
+        <v>100</v>
+      </c>
+      <c r="D30" s="9">
+        <v>99.361999999999995</v>
+      </c>
+      <c r="E30" s="9">
+        <v>64.965999999999994</v>
+      </c>
+      <c r="F30" s="10">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="G30" s="11">
+        <v>-8.4339999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="6">
-        <v>2900</v>
-      </c>
-      <c r="D31">
-        <v>2881.5</v>
-      </c>
-      <c r="E31" s="8">
-        <v>2056</v>
-      </c>
-      <c r="F31" s="12">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="8">
+        <v>100</v>
+      </c>
+      <c r="D31" s="13">
+        <v>100</v>
+      </c>
+      <c r="E31" s="13">
+        <v>100</v>
+      </c>
+      <c r="F31" s="14">
+        <v>100</v>
+      </c>
+      <c r="G31" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D33">
+        <v>2981.5</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2156</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1896</v>
+      </c>
+      <c r="G33" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
         <v>44</v>
       </c>
-      <c r="F32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>36</v>
+      <c r="G34" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/班费统计/班费情况.xlsx
+++ b/班费统计/班费情况.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,28 @@
   </si>
   <si>
     <t>钟嘉伦1人请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除陈明霏都充值100</t>
+    <rPh sb="0" eb="1">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'fei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chong'zhi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +423,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +490,13 @@
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -509,10 +541,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -554,9 +587,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -834,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -846,12 +881,12 @@
     <col min="5" max="5" width="38.6640625" customWidth="1"/>
     <col min="6" max="6" width="54.1640625" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" customWidth="1"/>
     <col min="10" max="10" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,8 +905,11 @@
       <c r="G1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>28</v>
       </c>
@@ -893,8 +931,12 @@
       <c r="G2" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>G2+100</f>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -914,8 +956,12 @@
       <c r="G3" s="9">
         <v>25.962</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <f t="shared" ref="H3:H30" si="0">G3+100</f>
+        <v>125.962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -935,8 +981,12 @@
       <c r="G4" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -956,8 +1006,12 @@
       <c r="G5" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
@@ -979,8 +1033,12 @@
       <c r="G6" s="11">
         <v>1.966</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>101.96599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -1000,8 +1058,12 @@
       <c r="G7" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1021,8 +1083,12 @@
       <c r="G8" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -1042,8 +1108,12 @@
       <c r="G9" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
@@ -1065,8 +1135,12 @@
       <c r="G10" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -1086,8 +1160,12 @@
       <c r="G11" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -1107,8 +1185,12 @@
       <c r="G12" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1128,8 +1210,12 @@
       <c r="G13" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
@@ -1151,8 +1237,12 @@
       <c r="G14" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -1172,8 +1262,12 @@
       <c r="G15" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -1193,8 +1287,12 @@
       <c r="G16" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>32</v>
       </c>
@@ -1216,8 +1314,12 @@
       <c r="G17" s="12">
         <v>1.966</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>101.96599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -1237,8 +1339,13 @@
       <c r="G18" s="9">
         <v>25.962</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>125.962</v>
+      </c>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -1258,8 +1365,12 @@
       <c r="G19" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>33</v>
       </c>
@@ -1281,8 +1392,12 @@
       <c r="G20" s="11">
         <v>54.566000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>154.566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -1302,8 +1417,12 @@
       <c r="G21" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -1323,8 +1442,12 @@
       <c r="G22" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -1344,8 +1467,12 @@
       <c r="G23" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>34</v>
       </c>
@@ -1367,8 +1494,12 @@
       <c r="G24" s="12">
         <v>1.966</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>101.96599999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
@@ -1388,8 +1519,12 @@
       <c r="G25" s="12">
         <v>36.362000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>136.36199999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
@@ -1409,8 +1544,12 @@
       <c r="G26" s="9">
         <v>25.962</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>125.962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -1430,8 +1569,12 @@
       <c r="G27" s="9">
         <v>25.962</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>125.962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
@@ -1453,8 +1596,12 @@
       <c r="G28" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -1474,8 +1621,12 @@
       <c r="G29" s="9">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -1495,8 +1646,12 @@
       <c r="G30" s="11">
         <v>-8.4339999999999993</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>91.566000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1518,8 +1673,11 @@
       <c r="G31" s="9">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1538,8 +1696,11 @@
       <c r="G33" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
